--- a/Tarife_Sablonu.xlsx
+++ b/Tarife_Sablonu.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sabit_kalemler" sheetId="1" r:id="rId1"/>
+    <sheet name="kilavuzluk" sheetId="2" r:id="rId2"/>
+    <sheet name="romorkor_istanbul" sheetId="3" r:id="rId3"/>
+    <sheet name="romorkor_canakkale" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>kalem</t>
   </si>
@@ -89,6 +92,27 @@
   </si>
   <si>
     <t>tahlisiye_kabotaj_normal</t>
+  </si>
+  <si>
+    <t>hizmet_turu</t>
+  </si>
+  <si>
+    <t>taban</t>
+  </si>
+  <si>
+    <t>ilave</t>
+  </si>
+  <si>
+    <t>alt_boy</t>
+  </si>
+  <si>
+    <t>ust_boy</t>
+  </si>
+  <si>
+    <t>cins</t>
+  </si>
+  <si>
+    <t>ucret</t>
   </si>
 </sst>
 </file>
@@ -647,4 +671,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tarife_Sablonu.xlsx
+++ b/Tarife_Sablonu.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkondur\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18331BB4-1D40-48A1-8828-AE23C3D34783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sabit_kalemler" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="romorkor_istanbul" sheetId="3" r:id="rId3"/>
     <sheet name="romorkor_canakkale" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>kalem</t>
   </si>
@@ -94,15 +100,9 @@
     <t>tahlisiye_kabotaj_normal</t>
   </si>
   <si>
-    <t>hizmet_turu</t>
-  </si>
-  <si>
     <t>taban</t>
   </si>
   <si>
-    <t>ilave</t>
-  </si>
-  <si>
     <t>alt_boy</t>
   </si>
   <si>
@@ -113,13 +113,28 @@
   </si>
   <si>
     <t>ucret</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>ek</t>
+  </si>
+  <si>
+    <t>bogaz_istanbul</t>
+  </si>
+  <si>
+    <t>bogaz_canakkale</t>
+  </si>
+  <si>
+    <t>halic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +197,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +249,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,9 +318,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,14 +494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,15 +509,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.43725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.43725000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -500,55 +525,55 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.4486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2.4485999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.2243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1.2242999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.26136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.26135999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.13068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.13067999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2.4486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>2.4485999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.2243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>1.2242999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -556,31 +581,31 @@
         <v>0.19008</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.09504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>9.5039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.4486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>2.4485999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.2243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>1.2242999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -588,7 +613,7 @@
         <v>0.209088</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -596,63 +621,63 @@
         <v>0.104544</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.13068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.13067999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.09504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>9.5039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -660,93 +685,144 @@
         <v>0.104544</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>550</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>550</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>605</v>
+      </c>
+      <c r="C4">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Tarife_Sablonu.xlsx
+++ b/Tarife_Sablonu.xlsx
@@ -1,29 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkondur\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18331BB4-1D40-48A1-8828-AE23C3D34783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sabit_kalemler" sheetId="1" r:id="rId1"/>
-    <sheet name="kilavuzluk" sheetId="2" r:id="rId2"/>
-    <sheet name="romorkor_istanbul" sheetId="3" r:id="rId3"/>
-    <sheet name="romorkor_canakkale" sheetId="4" r:id="rId4"/>
+    <sheet name="kilavuzluk" sheetId="1" r:id="rId1"/>
+    <sheet name="romorkor_istanbul" sheetId="2" r:id="rId2"/>
+    <sheet name="romorkor_canakkale" sheetId="3" r:id="rId3"/>
+    <sheet name="sabit_kalemler" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>taban</t>
+  </si>
+  <si>
+    <t>ek</t>
+  </si>
+  <si>
+    <t>bogaz_istanbul</t>
+  </si>
+  <si>
+    <t>bogaz_canakkale</t>
+  </si>
+  <si>
+    <t>halic</t>
+  </si>
+  <si>
+    <t>min_boy</t>
+  </si>
+  <si>
+    <t>max_boy</t>
+  </si>
+  <si>
+    <t>cins</t>
+  </si>
+  <si>
+    <t>ucret</t>
+  </si>
+  <si>
+    <t>TANKER/LPG</t>
+  </si>
+  <si>
+    <t>TANKER</t>
+  </si>
+  <si>
+    <t>RO-RO/KONT /DİGER</t>
+  </si>
+  <si>
+    <t>LPG/ NÜKLEER</t>
+  </si>
   <si>
     <t>kalem</t>
   </si>
@@ -34,107 +70,20 @@
     <t>saglik_katsayi</t>
   </si>
   <si>
-    <t>refakat_orani</t>
-  </si>
-  <si>
-    <t>fener_yabanci_ilk_ugraksiz</t>
-  </si>
-  <si>
-    <t>fener_yabanci_ust_ugraksiz</t>
-  </si>
-  <si>
-    <t>fener_yabanci_ilk_normal</t>
-  </si>
-  <si>
-    <t>fener_yabanci_ust_normal</t>
-  </si>
-  <si>
-    <t>fener_yolcu_ilk_ugraksiz</t>
-  </si>
-  <si>
-    <t>fener_yolcu_ust_ugraksiz</t>
-  </si>
-  <si>
-    <t>fener_yolcu_ilk_normal</t>
-  </si>
-  <si>
-    <t>fener_yolcu_ust_normal</t>
-  </si>
-  <si>
-    <t>fener_turk_ilk_ugraksiz</t>
-  </si>
-  <si>
-    <t>fener_turk_ust_ugraksiz</t>
-  </si>
-  <si>
-    <t>fener_turk_ilk_normal</t>
-  </si>
-  <si>
-    <t>fener_turk_ust_normal</t>
-  </si>
-  <si>
-    <t>fener_kabotaj_ilk_normal</t>
-  </si>
-  <si>
-    <t>fener_kabotaj_ust_normal</t>
-  </si>
-  <si>
-    <t>tahlisiye_yabanci_ugraksiz</t>
-  </si>
-  <si>
-    <t>tahlisiye_yabanci_normal</t>
-  </si>
-  <si>
-    <t>tahlisiye_yolcu_ugraksiz</t>
-  </si>
-  <si>
-    <t>tahlisiye_yolcu_normal</t>
-  </si>
-  <si>
-    <t>tahlisiye_turk_ugraksiz</t>
-  </si>
-  <si>
-    <t>tahlisiye_turk_normal</t>
-  </si>
-  <si>
-    <t>tahlisiye_kabotaj_normal</t>
-  </si>
-  <si>
-    <t>taban</t>
-  </si>
-  <si>
-    <t>alt_boy</t>
-  </si>
-  <si>
-    <t>ust_boy</t>
-  </si>
-  <si>
-    <t>cins</t>
-  </si>
-  <si>
-    <t>ucret</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>ek</t>
-  </si>
-  <si>
-    <t>bogaz_istanbul</t>
-  </si>
-  <si>
-    <t>bogaz_canakkale</t>
-  </si>
-  <si>
-    <t>halic</t>
+    <t>fener_ilk</t>
+  </si>
+  <si>
+    <t>fener_sonrasi</t>
+  </si>
+  <si>
+    <t>tahlisiye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,21 +146,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +190,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -283,7 +224,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,10 +258,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,335 +433,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.43725000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2.4485999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1.2242999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.26135999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0.13067999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>2.4485999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1.2242999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.19008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>9.5039999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2.4485999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1.2242999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.209088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.104544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0.58299999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>0.13067999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0.58299999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>9.5039999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>0.58299999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>0.104544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>3.3000000000000002E-2</v>
+        <v>605</v>
+      </c>
+      <c r="C4">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L </oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>550</v>
-      </c>
-      <c r="C2">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
       <c r="B3">
-        <v>550</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
+        <v>149.99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>150</v>
       </c>
       <c r="B4">
-        <v>605</v>
-      </c>
-      <c r="C4">
-        <v>136</v>
+        <v>199.99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>299.99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>8500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L </oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>149.99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>199.99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>299.99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L </oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.43725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2.4486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1.2243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0.583</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L </oddFooter>
-  </headerFooter>
 </worksheet>
 </file>